--- a/책읽기/2021-01-02 길없는 길.xlsx
+++ b/책읽기/2021-01-02 길없는 길.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\책읽기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FBD826-2257-46F8-8BF9-7F0703827A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB61F4D5-9610-4E0D-88D7-7A812F919FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="선의 법계" sheetId="2" r:id="rId2"/>
+    <sheet name="구산선문" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
   <si>
     <t>길없는 길</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +83,1293 @@
   </si>
   <si>
     <t>길 없는 길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경허</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA55858"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혜월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>慧月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1861</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1937</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA55858"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>水月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1855</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 1928</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>제6조 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>혜능(638~713)</t>
+    </r>
+  </si>
+  <si>
+    <t>석가모니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1조 보리 달마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>道信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 580~651)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승찬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>僧璨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: ?~606)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혜가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(487~593)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홍인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>弘忍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 601~674)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월면 만공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>滿空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1871</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 1946</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 간화선의 부흥자 한국근대불교의 중흥조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수덕사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보월성인(寶月性印, 1884~1924)</t>
+  </si>
+  <si>
+    <t>금오태전(金烏太田, 1896~1968)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>신라</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도의국사 (道義國師)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원적 도의(元寂道義)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억성 염거(億聖廉居)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제57조 태고 보우(太古普愚)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제58조 환앙 혼수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제59조 구곡 각운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제60조 벽게 정심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제61조 벽송 지엄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제62조 부용 영관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제63조 청허 휴정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제64조 편양 언기 (1581~1644)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제65조 풍담 의심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제66조 월담설제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제74조 만화보선(萬化普善)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제73조 영월봉률(永月奉律)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제72조 용암혜언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제71조 금허법첨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제70조 율봉청고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제69조 청봉거안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제68조 호암체정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제67조 환성지안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제75조 경허 성우(鏡虛惺牛,1846~1912)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제79조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제79조 진제 법원 (1967~)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제76좋 혜월 혜명 (1912~1937)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제77조 운봉 성수 (1937~1941)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제78조 행곡 혜림 (1941~1967)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제76조 만공 월면 (1871~1946)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제77조 고봉 경욱 (1890~1962)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제78조 숭산 행원 (1946~1974)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제78조 송담 정은 (1927~2004)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지산문의 초조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제28조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국 북위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 체징(普照體澄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선각 형미(先覺逈微)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무위 도수(無爲道修)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜공 정열(慧空定悅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월산 경월(月山景月)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인각 자흘(麟角自屹)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보림 이익(寶林爾益)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지산 혜안(智山慧安)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향수 혜함(香水惠含)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원응 학일(圓應學一)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍원 도태(弘圓道泰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구산 해안(龜山海安)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진전 대웅(陳田大雄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보각 견명(普覺見明)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보감 혼구(寶鑑混丘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정 청진(眞靜淸珍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회엄 광지(檜儼廣智)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제11조 임제 의현 (~867)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임제종의 시조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제10조 황벽 희운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제9대 백장 회해 (749~814)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당나라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제8조 마조도일 (709~788)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제7조 남악회양 (677~744)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서당지장 (735~814)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서당 지장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍척</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실상 산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지 산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동리 산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염관 제안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사술 산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마곡 보철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성주 산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남원 보전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마조 도일 (709~788)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자 산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉림 산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍계 산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실상산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동리산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉림산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성주산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사굴산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자산문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설악산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지리산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적인선사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통효국사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동리산 
+대안사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남원 
+실상사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지산 
+보림사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>847년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대낭혜국사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철감선사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원감국사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(787~868)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장경 회희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>890년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진철국사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이엄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(866~932)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수민산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운거 도응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희양산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정진국사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긍양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(878~956)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도연곡산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>932년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>935년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조선사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증각대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>828년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>840년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>839년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설립자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보령 
+성주사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강릉
+사굴산 
+굴산사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화순
+쌍봉사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 
+창원
+봉림사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문경
+희양산
+봉암사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해주
+수미산
+광조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2조 혜가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소인은 오래전부터 풍병을 앓고 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 죄가 그리도 많아서인지 병으로 고통 받고 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄를 가져오너라 그러하면 내사 참회시켜 주리라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3조 승찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상이시여, 자비를 베푸시어 해탈하는 법문을 일러 주소서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 너를 속박하였는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무도 속박하지 않았습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러하면 무슨 해탈을 따로 구하는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4조 도신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 이름이 무엇이냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성은 있으나 흔한 성이 아닙니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수슨 성인데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불성이 저의 성입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다면 너는 성이 없그나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇습니다. 원래 불성은 공하다고 하지 않습니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5조 홍인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 어디서 왔으며 무엇을 구하려 하느냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예, 저는 남해에사는 백성이온데 이렇게 와서 뵙는 것은 부처가 되고자 함이옵고 다른 뜻은 없나이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 너는 영남 오랑캐인데 어찌 감히 부처가 될 수 있겠느냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람에게는 남쪽 사람과 북쪽 사람이 있사오나 불성에는 본래 남과 북이 없사옵거늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랑캐인 저의 몸은 화상과 같지 않다하더라도 불성이야 어찌 다르리요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가서 대중들과 함께 일이나 하여라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상께 여쭈옵니다. 제가 생각하기에는 제 마음에 항상 지혜를 내어 제 성품을 여의치 아니하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곧 이것이 복밭인가 하옵는데 화상께서는 어떠한 일을 하라 하십나이까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허어, 이 무지렁이가 제법 똘똘한 체하는 구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젠 잔소리 그만하고 나가서 방아나 찧어라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영가 현각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남양 혜충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하택 신회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남악 희양  ---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청원 행사  ---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반야다라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +1377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +1392,104 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA55858"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +1499,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,15 +1507,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -518,4 +1999,1027 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918C3C49-430A-4DF8-A6A5-B4BAC6240472}">
+  <dimension ref="B3:C92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" tooltip="혜능" display="https://ko.wikipedia.org/wiki/%ED%98%9C%EB%8A%A5" xr:uid="{7007E69E-57E2-4BA6-9411-6667AC7C6DDD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36EE30A-0799-47D5-A72E-9B9BE809A50F}">
+  <dimension ref="A5:S24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="1.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10"/>
+    <col min="4" max="4" width="1.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="1.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="1.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9" style="10"/>
+    <col min="10" max="10" width="1.625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="9" style="10"/>
+    <col min="12" max="12" width="1.625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9" style="10"/>
+    <col min="14" max="14" width="1.625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="9" style="10"/>
+    <col min="16" max="16" width="1.625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9" style="10"/>
+    <col min="18" max="18" width="1.625" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="G22" s="13">
+        <v>3</v>
+      </c>
+      <c r="I22" s="13">
+        <v>4</v>
+      </c>
+      <c r="K22" s="13">
+        <v>5</v>
+      </c>
+      <c r="M22" s="13">
+        <v>6</v>
+      </c>
+      <c r="O22" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>8</v>
+      </c>
+      <c r="S22" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260D58F2-00EC-4B84-B312-AF98974CF25A}">
+  <dimension ref="B2:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>